--- a/server/excel/ui_Proto.xlsx
+++ b/server/excel/ui_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="uiCbhsMonthZjCbTotal" sheetId="8" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="uiDeptGrandTotalTj" sheetId="15" r:id="rId8"/>
     <sheet name="uiGetUser" sheetId="16" r:id="rId9"/>
     <sheet name="uiClhxTj" sheetId="17" r:id="rId10"/>
+    <sheet name="uiAbnormal" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>属性名</t>
   </si>
@@ -476,6 +477,24 @@
   </si>
   <si>
     <t>实际用量</t>
+  </si>
+  <si>
+    <t>tjTime</t>
+  </si>
+  <si>
+    <t>统计时间</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>是否异常</t>
+  </si>
+  <si>
+    <t>true异常 false未异常</t>
   </si>
 </sst>
 </file>
@@ -483,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -533,7 +552,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,21 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -570,17 +605,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,7 +620,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,14 +672,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -625,7 +680,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -634,43 +689,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,13 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +758,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +848,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -763,121 +890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,6 +936,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -928,6 +962,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,21 +1023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -981,39 +1033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1022,10 +1041,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,133 +1053,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,11 +1557,11 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -1747,7 +1766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="13" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="14" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1786,7 +1805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="16" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -1808,25 +1827,25 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
+    <row r="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
@@ -1881,7 +1900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>136</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
@@ -1993,6 +2012,123 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.75" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2010,11 +2146,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2262,11 +2398,11 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2350,11 +2486,11 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2449,11 +2585,11 @@
       <selection activeCell="C31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2537,11 +2673,11 @@
       <selection activeCell="A11" sqref="$A11:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2732,13 +2868,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.89166666666667" style="7"/>
-    <col min="4" max="4" width="17.8833333333333" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="7"/>
+    <col min="4" max="4" width="17.8796296296296" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2841,11 +2977,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
@@ -2948,24 +3084,24 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
+    <row r="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -3023,7 +3159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
@@ -3062,7 +3198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="6" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
@@ -3076,7 +3212,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="7" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>118</v>
       </c>
@@ -3090,7 +3226,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>120</v>
       </c>
@@ -3104,7 +3240,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="9" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3118,7 +3254,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="10" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -3132,7 +3268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="11" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>123</v>
       </c>
@@ -3143,7 +3279,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="12" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>125</v>
       </c>
@@ -3157,7 +3293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="13" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>128</v>
       </c>
@@ -3168,7 +3304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="14" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>130</v>
       </c>

--- a/server/excel/ui_Proto.xlsx
+++ b/server/excel/ui_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="uiCbhsMonthZjCbTotal" sheetId="8" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="uiGetUser" sheetId="16" r:id="rId9"/>
     <sheet name="uiClhxTj" sheetId="17" r:id="rId10"/>
     <sheet name="uiAbnormal" sheetId="18" r:id="rId11"/>
+    <sheet name="uiCbAnalyze" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
   <si>
     <t>属性名</t>
   </si>
@@ -495,6 +496,186 @@
   </si>
   <si>
     <t>true异常 false未异常</t>
+  </si>
+  <si>
+    <t>rlTotal</t>
+  </si>
+  <si>
+    <t>人力总支出</t>
+  </si>
+  <si>
+    <t>rlSpecific</t>
+  </si>
+  <si>
+    <t>人力占的比重</t>
+  </si>
+  <si>
+    <t>cailiaoTotal</t>
+  </si>
+  <si>
+    <t>材料总支出</t>
+  </si>
+  <si>
+    <t>cailiaoSpecific</t>
+  </si>
+  <si>
+    <t>材料占的比重</t>
+  </si>
+  <si>
+    <t>jxTotal</t>
+  </si>
+  <si>
+    <t>机械总支出</t>
+  </si>
+  <si>
+    <t>jxSpecific</t>
+  </si>
+  <si>
+    <t>机械占的比重</t>
+  </si>
+  <si>
+    <t>qttotal</t>
+  </si>
+  <si>
+    <t>其他直接成本总支出</t>
+  </si>
+  <si>
+    <t>qtSpecific</t>
+  </si>
+  <si>
+    <t>其他直接占的比重</t>
+  </si>
+  <si>
+    <t>fbgctotal</t>
+  </si>
+  <si>
+    <t>分包工程总支出</t>
+  </si>
+  <si>
+    <t>fbgcSpecific</t>
+  </si>
+  <si>
+    <t>分包工程占的比重</t>
+  </si>
+  <si>
+    <t>fbljxmtotal</t>
+  </si>
+  <si>
+    <t>分包临建项目总支出</t>
+  </si>
+  <si>
+    <t>fbljxmSpecific</t>
+  </si>
+  <si>
+    <t>分包临建项目占的比重</t>
+  </si>
+  <si>
+    <t>rygztotal</t>
+  </si>
+  <si>
+    <t>人员工资总支出</t>
+  </si>
+  <si>
+    <t>rygzSpecific</t>
+  </si>
+  <si>
+    <t>人员工资占的比重</t>
+  </si>
+  <si>
+    <t>clftotal</t>
+  </si>
+  <si>
+    <t>差旅费总支出</t>
+  </si>
+  <si>
+    <t>clfSpecific</t>
+  </si>
+  <si>
+    <t>差旅费占的比重</t>
+  </si>
+  <si>
+    <t>bgftotal</t>
+  </si>
+  <si>
+    <t>办公费总支出</t>
+  </si>
+  <si>
+    <t>bgfSpecific</t>
+  </si>
+  <si>
+    <t>办公费占的比重</t>
+  </si>
+  <si>
+    <t>ywjftotal</t>
+  </si>
+  <si>
+    <t>业务经费总支出</t>
+  </si>
+  <si>
+    <t>ywjfSpecific</t>
+  </si>
+  <si>
+    <t>业务经费占的比重</t>
+  </si>
+  <si>
+    <t>xlftotal</t>
+  </si>
+  <si>
+    <t>修理费总支出</t>
+  </si>
+  <si>
+    <t>xlfSpecific</t>
+  </si>
+  <si>
+    <t>修理费占的比重</t>
+  </si>
+  <si>
+    <t>qtfytotal</t>
+  </si>
+  <si>
+    <t>其他费用总支出</t>
+  </si>
+  <si>
+    <t>qtfySpecific</t>
+  </si>
+  <si>
+    <t>其他费用占的比重</t>
+  </si>
+  <si>
+    <t>qyjgfytotal</t>
+  </si>
+  <si>
+    <t>企业经管费用总支出</t>
+  </si>
+  <si>
+    <t>qyjgfySpecific</t>
+  </si>
+  <si>
+    <t>企业经管费用占的比重</t>
+  </si>
+  <si>
+    <t>sjtotal</t>
+  </si>
+  <si>
+    <t>税金总支出</t>
+  </si>
+  <si>
+    <t>sjSpecific</t>
+  </si>
+  <si>
+    <t>税金占的比重</t>
+  </si>
+  <si>
+    <t>fbstjtotal</t>
+  </si>
+  <si>
+    <t>分包商统计总支出</t>
+  </si>
+  <si>
+    <t>fbstjSpecific</t>
+  </si>
+  <si>
+    <t>分包商统计占的比重</t>
   </si>
 </sst>
 </file>
@@ -502,8 +683,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -515,8 +696,10 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -525,20 +708,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -552,7 +733,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,47 +778,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,28 +794,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,6 +810,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -663,9 +840,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,23 +870,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +897,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,13 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,25 +987,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,31 +1041,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,91 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,21 +1117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -962,39 +1128,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,6 +1156,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1033,6 +1181,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1222,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,155 +1234,155 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1557,14 +1738,14 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1577,242 +1758,242 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="10.8" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="10" customHeight="1" spans="1:11">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="5" customFormat="1" ht="10" customHeight="1" spans="1:11">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="10.8" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="5" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1831,21 +2012,21 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="12" max="13" width="15.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:13">
+    <row r="1" ht="15" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1858,159 +2039,159 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="10.8" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="5" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2025,25 +2206,25 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="12" max="13" width="15.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:13">
+    <row r="1" ht="15" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2056,6 +2237,116 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2068,67 +2359,372 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>151</v>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2146,14 +2742,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2166,220 +2762,220 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2398,14 +2994,14 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2418,56 +3014,56 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2486,14 +3082,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2506,67 +3102,67 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2585,14 +3181,14 @@
       <selection activeCell="C31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,56 +3201,56 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2670,17 +3266,17 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD13"/>
+      <selection activeCell="B42" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2693,163 +3289,163 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2868,16 +3464,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="7"/>
-    <col min="4" max="4" width="17.8796296296296" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.89166666666667" style="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2890,75 +3486,75 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2977,14 +3573,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2997,78 +3593,78 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3087,21 +3683,21 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="12" max="13" width="15.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:13">
+    <row r="1" ht="15" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3114,224 +3710,224 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" ht="11.25" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="10.8" spans="1:4">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="5" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="10.8" spans="1:4">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="5" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="10.8" spans="1:4">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="5" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="10.8" spans="1:11">
-      <c r="A14" s="4" t="s">
+    <row r="14" s="5" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13" customHeight="1" spans="1:13">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="5" customFormat="1" ht="13" customHeight="1" spans="1:13">
+      <c r="A15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <v>20</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="5" t="s">
         <v>110</v>
       </c>
     </row>

--- a/server/excel/ui_Proto.xlsx
+++ b/server/excel/ui_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="uiCbhsMonthZjCbTotal" sheetId="8" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="uiClhxTj" sheetId="17" r:id="rId10"/>
     <sheet name="uiAbnormal" sheetId="18" r:id="rId11"/>
     <sheet name="uiCbAnalyze" sheetId="19" r:id="rId12"/>
+    <sheet name="uiFbCompanyTj" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <t>属性名</t>
   </si>
@@ -676,6 +677,87 @@
   </si>
   <si>
     <t>分包商统计占的比重</t>
+  </si>
+  <si>
+    <t>主键(重点工序核算)(创建不填|修改必填)</t>
+  </si>
+  <si>
+    <t>日期 yyyy-MM-dd 便于展示</t>
+  </si>
+  <si>
+    <t>dateTimeStamp</t>
+  </si>
+  <si>
+    <t>日期 每天00:00:00的时间戳 用于后期数据统计</t>
+  </si>
+  <si>
+    <t>fbcompanyOid</t>
+  </si>
+  <si>
+    <t>分包公司编号 分包公司项目</t>
+  </si>
+  <si>
+    <t>fbcompanyName</t>
+  </si>
+  <si>
+    <t>分包公司名称</t>
+  </si>
+  <si>
+    <t>globalGclYsOid</t>
+  </si>
+  <si>
+    <t>对应的分包工程量ID 大项</t>
+  </si>
+  <si>
+    <t>globaGclYsName</t>
+  </si>
+  <si>
+    <t>对应的分包工程量大项 名称</t>
+  </si>
+  <si>
+    <t>fbGclYsOid</t>
+  </si>
+  <si>
+    <t>对应的分包工程量ID 小项</t>
+  </si>
+  <si>
+    <t>fbGclYsName</t>
+  </si>
+  <si>
+    <t>对应的分包工程量 名称</t>
+  </si>
+  <si>
+    <t>gzTotal</t>
+  </si>
+  <si>
+    <t>人力费用</t>
+  </si>
+  <si>
+    <t>zcTotal</t>
+  </si>
+  <si>
+    <t>主材费用</t>
+  </si>
+  <si>
+    <t>fcTotal</t>
+  </si>
+  <si>
+    <t>辅材费用</t>
+  </si>
+  <si>
+    <t>machinerTotal</t>
+  </si>
+  <si>
+    <t>机械费用</t>
+  </si>
+  <si>
+    <t>machinerRyTotal</t>
+  </si>
+  <si>
+    <t>机械燃油</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
@@ -683,12 +765,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -696,6 +778,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -711,6 +805,7 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -725,10 +820,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,32 +835,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,15 +872,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +889,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,38 +920,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,15 +958,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +985,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +1087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,133 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,13 +1135,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,26 +1205,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,17 +1250,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,209 +1302,191 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,51 +1841,51 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1808,89 +1911,89 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
@@ -1899,7 +2002,7 @@
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1910,7 +2013,7 @@
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1921,7 +2024,7 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1932,7 +2035,7 @@
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1943,57 +2046,57 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A14" s="5" t="s">
+    <row r="14" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="10" customHeight="1" spans="1:11">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="12" customFormat="1" ht="10" customHeight="1" spans="1:11">
+      <c r="A15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A16" s="9" t="s">
+    <row r="16" s="12" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2012,186 +2115,186 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="24.75" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="12" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="12" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A6" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="12" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A7" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="12" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="12" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2210,105 +2313,105 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="24.75" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A4" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2323,55 +2426,55 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2724,6 +2827,300 @@
         <v>216</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>200</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>200</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2742,51 +3139,51 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2829,89 +3226,89 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" s="10" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -2920,7 +3317,7 @@
       <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2931,7 +3328,7 @@
       <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2942,7 +3339,7 @@
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2953,7 +3350,7 @@
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2964,7 +3361,7 @@
       <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2975,7 +3372,7 @@
       <c r="B14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2994,51 +3391,51 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3082,51 +3479,51 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3181,51 +3578,51 @@
       <selection activeCell="C31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3269,51 +3666,51 @@
       <selection activeCell="B42" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3464,53 +3861,53 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.89166666666667" style="1"/>
-    <col min="4" max="4" width="17.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="17.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3573,51 +3970,51 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3683,251 +4080,251 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="15.225" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="24.75" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="12" customFormat="1" ht="10.8" spans="1:10">
+      <c r="A2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="12" customFormat="1" ht="13" customHeight="1" spans="1:11">
+      <c r="A4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="12" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A6" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A8" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="12" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="12" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="12" customFormat="1" ht="10.8" spans="1:4">
+      <c r="A13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="12" customFormat="1" ht="10.8" spans="1:11">
+      <c r="A14" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="12">
         <v>500</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="13" customHeight="1" spans="1:13">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="12" customFormat="1" ht="13" customHeight="1" spans="1:13">
+      <c r="A15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="12">
         <v>20</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="12" t="s">
         <v>110</v>
       </c>
     </row>
